--- a/list_10_Mar17.xlsx
+++ b/list_10_Mar17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\upwork\boram-cloud-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E98C58D-CD5D-4F75-8C7E-86E8FBC632E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E51C6EF-CF34-4F37-9C11-04FE40ADDC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3540" windowWidth="20295" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20295" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
